--- a/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
+++ b/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D318925F-266E-47B0-A1D5-CA003D8F2435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C638489E-6CE1-479D-93D0-8E990D5CE4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000000%"/>
+    <numFmt numFmtId="164" formatCode="0.00000000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -119,7 +119,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E089F8E1-69D8-4482-BC20-D4FBEC0203E1}">
   <dimension ref="A1:G318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5654,18 +5654,15 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>14</v>
-      </c>
-      <c r="C298">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F298">
         <f t="shared" si="8"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="G298">
         <f t="shared" si="9"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -6002,11 +5999,11 @@
       </c>
       <c r="F318" s="2">
         <f>(AVERAGE(F2:F317))</f>
-        <v>0.96164804341228405</v>
+        <v>0.96204361303253716</v>
       </c>
       <c r="G318" s="2">
         <f>(AVERAGE(G2:G317))</f>
-        <v>0.96075367143405122</v>
+        <v>0.96114924105430433</v>
       </c>
     </row>
   </sheetData>

--- a/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
+++ b/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D318925F-266E-47B0-A1D5-CA003D8F2435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD4304-792A-43EC-AACA-27F1D3C19127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -61,13 +62,25 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Initial Preparation Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only Single Line </t>
+  </si>
+  <si>
+    <t>Using Size</t>
+  </si>
+  <si>
+    <t>Using Distance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000000%"/>
+    <numFmt numFmtId="164" formatCode="0.00000000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -119,7 +132,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E089F8E1-69D8-4482-BC20-D4FBEC0203E1}">
   <dimension ref="A1:G318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
@@ -6013,4 +6026,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CD9F93-0E95-4EDE-811A-9650DA95C7EC}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
+++ b/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD4304-792A-43EC-AACA-27F1D3C19127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B06F98-0E01-444C-9AD6-79B3C4E9E530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6033,7 +6033,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
+++ b/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B06F98-0E01-444C-9AD6-79B3C4E9E530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF82A930-6ADD-46C9-89A7-24837435A2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>No.</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Using Distance</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -6030,35 +6033,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CD9F93-0E95-4EDE-811A-9650DA95C7EC}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1007.8392997384</v>
+      </c>
+      <c r="D2">
+        <v>2.9599759727716401E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
+++ b/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF82A930-6ADD-46C9-89A7-24837435A2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06AD4DA-2173-47B8-BE81-C3F535226C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No.</t>
   </si>
@@ -61,21 +61,6 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>Initial Preparation Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only Single Line </t>
-  </si>
-  <si>
-    <t>Using Size</t>
-  </si>
-  <si>
-    <t>Using Distance</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -453,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E089F8E1-69D8-4482-BC20-D4FBEC0203E1}">
   <dimension ref="A1:G318"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="L301" sqref="L301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6033,10 +6018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CD9F93-0E95-4EDE-811A-9650DA95C7EC}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="A1:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6046,87 +6031,7 @@
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1007.8392997384</v>
-      </c>
-      <c r="D2">
-        <v>2.9599759727716401E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
+++ b/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FA8C8D-0662-4EC2-8858-BBA57981B02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69FC3F9-3317-4CA8-8B75-A885723F78C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
   </bookViews>
@@ -12064,8 +12064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E089F8E1-69D8-4482-BC20-D4FBEC0203E1}">
   <dimension ref="A1:K318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="K318" sqref="K318"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12193,7 +12193,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I3:I66" si="3">(E4/(E4+C4))</f>
+        <f t="shared" ref="I4:I66" si="3">(E4/(E4+C4))</f>
         <v>0</v>
       </c>
       <c r="J4">
@@ -16323,7 +16323,7 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="I133">
-        <f t="shared" ref="I131:I194" si="14">(E133/(E133+C133))</f>
+        <f t="shared" ref="I133:I194" si="14">(E133/(E133+C133))</f>
         <v>0</v>
       </c>
       <c r="J133">
@@ -18306,7 +18306,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="18">(E195/(E195+C195))</f>
+        <f t="shared" ref="I195:I255" si="18">(E195/(E195+C195))</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="J195">
@@ -22214,7 +22214,7 @@
         <v>0.96075367143405122</v>
       </c>
       <c r="H318" s="2">
-        <f t="shared" ref="H318:K318" si="26">(AVERAGE(H2:H317))</f>
+        <f t="shared" ref="H318" si="26">(AVERAGE(H2:H317))</f>
         <v>0.97851289244300421</v>
       </c>
       <c r="I318" s="2"/>

--- a/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
+++ b/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69FC3F9-3317-4CA8-8B75-A885723F78C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB89977-A475-4615-86A9-19D6DFB11534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,37 +164,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -217,7 +187,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -2207,10 +2177,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2218,7 +2185,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>False Positive Rate</a:t>
                 </a:r>
               </a:p>
@@ -2239,10 +2210,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2327,10 +2295,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2338,7 +2303,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Recall</a:t>
                 </a:r>
               </a:p>
@@ -2359,10 +2328,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2474,37 +2440,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2524,12 +2460,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:symbol val="triangle"/>
+            <c:size val="4"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -4502,10 +4436,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4513,7 +4444,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Image Index</a:t>
                 </a:r>
               </a:p>
@@ -4534,10 +4469,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4622,10 +4554,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4633,7 +4562,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> Accuracy</a:t>
                 </a:r>
               </a:p>
@@ -4654,10 +4587,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4776,37 +4706,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4834,12 +4734,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:symbol val="triangle"/>
+            <c:size val="4"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -6812,10 +6710,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6823,7 +6718,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Image Index</a:t>
                 </a:r>
               </a:p>
@@ -6844,10 +6743,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6932,10 +6828,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6943,7 +6836,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> Precision</a:t>
                 </a:r>
               </a:p>
@@ -6964,10 +6861,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7083,37 +6977,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -7149,7 +7013,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -9126,10 +8990,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9137,7 +8998,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Image Index</a:t>
                 </a:r>
               </a:p>
@@ -9158,10 +9023,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -9246,10 +9108,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9257,7 +9116,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> F1 Score</a:t>
                 </a:r>
               </a:p>
@@ -9278,10 +9141,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -12064,8 +11924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E089F8E1-69D8-4482-BC20-D4FBEC0203E1}">
   <dimension ref="A1:K318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
+++ b/pythonProject/Results_2/Results_Accuracy_Precision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\MSc\Masters Project 2023\Masters-Project-2023\pythonProject\Results_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB89977-A475-4615-86A9-19D6DFB11534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B9DBEC-DA0D-43E7-A73B-4E71C74C747A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CA8B72F-33E3-4768-B596-8D0AAD542442}"/>
   </bookViews>
@@ -166,7 +166,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7680472081968192E-2"/>
+          <c:y val="6.2967335694608426E-2"/>
+          <c:w val="0.8855266119089138"/>
+          <c:h val="0.78196258525535545"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -187,10 +197,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="97000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -203,9 +215,7 @@
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
@@ -2157,12 +2167,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2175,7 +2180,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2185,7 +2190,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1050">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2208,7 +2213,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -2222,17 +2227,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2243,12 +2245,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2267,7 +2266,7 @@
         <c:axId val="1107034544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2275,12 +2274,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2293,7 +2287,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2303,7 +2297,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1050">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2326,7 +2320,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -2340,17 +2334,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2361,12 +2352,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2379,12 +2367,14 @@
         <c:crossAx val="1107044624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.000000000000001E-2"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2398,12 +2388,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2442,7 +2427,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2189510447740232E-2"/>
+          <c:y val="8.0506037952846457E-2"/>
+          <c:w val="0.88347314015466938"/>
+          <c:h val="0.78760472652246816"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2460,10 +2455,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="circle"/>
             <c:size val="4"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -4408,7 +4405,7 @@
         <c:axId val="1287361136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="317"/>
+          <c:max val="325"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4416,12 +4413,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4434,7 +4426,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4444,7 +4436,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1050">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4467,7 +4459,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -4481,17 +4473,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4504,10 +4493,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4527,19 +4513,14 @@
         <c:axId val="1287362096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4552,7 +4533,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4562,7 +4543,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1050">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -4585,7 +4566,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -4599,17 +4580,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4622,10 +4600,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4642,8 +4617,10 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -4664,12 +4641,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4708,7 +4680,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5678297634566211E-2"/>
+          <c:y val="9.2112838226827864E-2"/>
+          <c:w val="0.88359780114407338"/>
+          <c:h val="0.78736017237914346"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4734,10 +4716,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="circle"/>
             <c:size val="4"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -6690,12 +6674,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6708,7 +6687,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6718,7 +6697,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1050">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6741,7 +6720,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -6755,17 +6734,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -6778,10 +6754,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6801,19 +6774,15 @@
         <c:axId val="1287362096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6826,7 +6795,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6836,7 +6805,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1050">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6859,7 +6828,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -6873,17 +6842,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -6896,10 +6862,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6916,8 +6879,10 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -6938,9 +6903,7 @@
       <a:sysClr val="window" lastClr="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6979,7 +6942,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2112281765795594E-2"/>
+          <c:y val="8.0552359033371698E-2"/>
+          <c:w val="0.88359780114407338"/>
+          <c:h val="0.78748251980585282"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -6998,15 +6971,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="67000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8962,7 +8928,7 @@
         <c:axId val="1287361136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="317"/>
+          <c:max val="325"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8970,12 +8936,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8988,7 +8949,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -8998,7 +8959,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1050">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -9021,7 +8982,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -9035,17 +8996,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -9058,10 +9016,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9081,19 +9036,14 @@
         <c:axId val="1287362096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9106,7 +9056,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -9116,7 +9066,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1050">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -9139,7 +9089,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -9153,17 +9103,16 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -9176,10 +9125,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9196,8 +9142,10 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -9218,12 +9166,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -11513,15 +11456,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>20955</xdr:colOff>
+      <xdr:colOff>43815</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>430530</xdr:colOff>
+      <xdr:colOff>453390</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11924,8 +11867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E089F8E1-69D8-4482-BC20-D4FBEC0203E1}">
   <dimension ref="A1:K318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="I55" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
